--- a/电商网站.xlsx
+++ b/电商网站.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="简介" sheetId="1" r:id="rId1"/>
@@ -12,8 +12,7 @@
     <sheet name="数据表结构" sheetId="3" r:id="rId3"/>
     <sheet name="Tomcat" sheetId="4" r:id="rId4"/>
     <sheet name="Maven简介" sheetId="5" r:id="rId5"/>
-    <sheet name="用户模块" sheetId="6" r:id="rId6"/>
-    <sheet name="分类管理模块" sheetId="7" r:id="rId7"/>
+    <sheet name="各模块设计概述" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="128">
   <si>
     <t>环境搭建</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -396,6 +395,146 @@
   </si>
   <si>
     <t>获取当前分类id及递归子节点categoryid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类管理模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品管理模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富文本上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品上下架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTP服务的对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpringMVC文件上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流读取Properties配置文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽象POJO、BO、VO对象之间的转换关系及解决思路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joda-time快速入门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mybatis-PageHelper高效准确地分页及动态排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mybatis对List遍历的实现方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mybatis对where语句动态拼装的几个版本演变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索与排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品上下架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增OR更新产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富文本上传图片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -516,6 +655,451 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20C95068-CBA5-466C-9004-88FB005F7BD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7620001" y="13201650"/>
+          <a:ext cx="1524000" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>POJO-Plain Ordinary Java Object</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="箭头: 上下 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFAAED35-70EA-4800-90CA-60F22256AC46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8201025" y="12572999"/>
+          <a:ext cx="295275" cy="590551"/>
+        </a:xfrm>
+        <a:prstGeom prst="upDownArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矩形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E96CF404-0A54-468C-8C81-E8F0BCE8CA44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7629526" y="12077700"/>
+          <a:ext cx="1447800" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>BO-business Object</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="矩形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B29A89CA-A5A5-43CD-958E-02BE730C393F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7629526" y="10991850"/>
+          <a:ext cx="1428750" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>VO-view object</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="箭头: 上下 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9AFDC82-DF1E-4F29-B44D-B087A5CE8446}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8201025" y="11420474"/>
+          <a:ext cx="295275" cy="590551"/>
+        </a:xfrm>
+        <a:prstGeom prst="upDownArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>609601</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="矩形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84831AD7-4748-46B1-AF0B-98866CDC08CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10058401" y="13201650"/>
+          <a:ext cx="1524000" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>POJO-Plain Ordinary Java Object</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>600076</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="矩形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECAE40F7-04B3-4955-8394-8A1868248FC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10125076" y="12087225"/>
+          <a:ext cx="1447800" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>VO-value object</a:t>
+          </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -1099,378 +1683,548 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:R91"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="N80" sqref="N80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
         <v>57</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
         <v>59</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C28" t="s">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C29" t="s">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C30" t="s">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C31" t="s">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C32" t="s">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C33" t="s">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C34" t="s">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C35" t="s">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B39">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C39">
         <v>1</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>39</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>74</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B40">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C40">
         <v>2</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B41">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C41">
         <v>3</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B42">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C42">
         <v>4</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B43">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C43">
         <v>5</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>42</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B44">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C44">
         <v>6</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B45">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C45">
         <v>7</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B46">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C46">
         <v>8</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B47">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C47">
         <v>9</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B48">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C48">
         <v>10</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B49">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C49">
         <v>11</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>94</v>
+      </c>
+      <c r="B52" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B61">
+        <v>4</v>
+      </c>
+      <c r="C61" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>96</v>
+      </c>
+      <c r="K63" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C65" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C66" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C67" t="s">
+        <v>100</v>
+      </c>
+      <c r="R67" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C68" t="s">
+        <v>101</v>
+      </c>
+      <c r="R68" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C69" t="s">
+        <v>102</v>
+      </c>
+      <c r="K69" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C70" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C71" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C73" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C74" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C75" t="s">
+        <v>108</v>
+      </c>
+      <c r="K75" t="s">
+        <v>117</v>
+      </c>
+      <c r="R75" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C76" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C77" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C78" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C79" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C80" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C81" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C84" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>121</v>
+      </c>
+      <c r="D85" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C86" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C87" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C88" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C89" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C90" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C91" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>